--- a/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100826</v>
+        <v>100827</v>
       </c>
       <c r="D2" t="n">
         <v>18993</v>
       </c>
       <c r="E2" t="n">
-        <v>327347554</v>
+        <v>327352874</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D9" t="n">
         <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>35865016</v>
+        <v>36555237</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="D19" t="n">
         <v>730</v>
       </c>
       <c r="E19" t="n">
-        <v>66080520</v>
+        <v>66092282</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D48" t="n">
         <v>282</v>
       </c>
       <c r="E48" t="n">
-        <v>31618241</v>
+        <v>31738250</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11975</v>
+        <v>11976</v>
       </c>
       <c r="D56" t="n">
         <v>1811</v>
       </c>
       <c r="E56" t="n">
-        <v>187833438</v>
+        <v>187859672</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5211</v>
+        <v>5212</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20420843</v>
+        <v>20422343</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409188</v>
+        <v>409189</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1595776792</v>
+        <v>1595779968</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209611</v>
+        <v>209615</v>
       </c>
       <c r="D93" t="n">
         <v>34262</v>
       </c>
       <c r="E93" t="n">
-        <v>1309391416</v>
+        <v>1309459328</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94216</v>
+        <v>94218</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>918412165</v>
+        <v>918462438</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50781</v>
+        <v>50782</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>933267853</v>
+        <v>933328284</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D97" t="n">
         <v>375</v>
       </c>
       <c r="E97" t="n">
-        <v>214282109</v>
+        <v>214351518</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135250</v>
+        <v>135253</v>
       </c>
       <c r="D104" t="n">
         <v>23287</v>
       </c>
       <c r="E104" t="n">
-        <v>272245243</v>
+        <v>272253470</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D119" t="n">
         <v>56</v>
       </c>
       <c r="E119" t="n">
-        <v>10145878</v>
+        <v>10745878</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>96859</v>
+        <v>96860</v>
       </c>
       <c r="D173" t="n">
         <v>16841</v>
       </c>
       <c r="E173" t="n">
-        <v>327930187</v>
+        <v>327935644</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
